--- a/results/mp/logistic/corona/confidence/42/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,139 +46,139 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -190,10 +190,10 @@
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,16 +641,16 @@
         <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.392156862745098</v>
+        <v>0.3682170542635659</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3565891472868217</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C8">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.28</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -970,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2080536912751678</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,49 +1020,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1388888888888889</v>
+        <v>0.009716941275876637</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>310</v>
+        <v>2344</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="L11">
+        <v>112</v>
+      </c>
+      <c r="M11">
+        <v>112</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0.8125</v>
-      </c>
-      <c r="L11">
-        <v>104</v>
-      </c>
-      <c r="M11">
-        <v>104</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,37 +1070,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01014370245139476</v>
+        <v>0.006131010003226848</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2342</v>
+        <v>3080</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,37 +1120,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009987113402061855</v>
+        <v>0.005449591280653951</v>
       </c>
       <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>0.49</v>
+      </c>
+      <c r="F13">
+        <v>0.51</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5110</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>0.09</v>
-      </c>
-      <c r="F13">
-        <v>0.91</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3073</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,87 +1170,63 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008699434536755112</v>
+        <v>0.004888268156424581</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
-        <v>0.6699999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2279</v>
+        <v>4275</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.76875</v>
+      </c>
+      <c r="L14">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <v>123</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.005258033106134372</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>0.53</v>
-      </c>
-      <c r="F15">
-        <v>0.47</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>5108</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.7578125</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.76875</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1314,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7535211267605634</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1340,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1366,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1392,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1418,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1444,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6808510638297872</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1470,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1496,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1522,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6511627906976745</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1548,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1579,16 +1555,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6264705882352941</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L28">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="M28">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1600,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6108786610878661</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1626,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6033898305084746</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L30">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1652,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5846153846153846</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1678,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1704,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1730,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1756,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4444444444444444</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1782,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1808,111 +1784,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.03007518796992481</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1161</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.01051840721262209</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N38">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0.28</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2634</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.007030936118923263</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="O39">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4943</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40">
+        <v>0.008213552361396304</v>
+      </c>
+      <c r="L40">
         <v>20</v>
       </c>
-      <c r="K40">
-        <v>0.005838847800700661</v>
-      </c>
-      <c r="L40">
+      <c r="M40">
         <v>30</v>
       </c>
-      <c r="M40">
-        <v>57</v>
-      </c>
       <c r="N40">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="O40">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>5108</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1920,25 +1896,77 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.005333951762523191</v>
+        <v>0.008035355564483728</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N41">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O41">
-        <v>0.41</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4289</v>
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>0.007429765498026469</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <v>0.6</v>
+      </c>
+      <c r="O42">
+        <v>0.4</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>0.005255985984037376</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>55</v>
+      </c>
+      <c r="N43">
+        <v>0.49</v>
+      </c>
+      <c r="O43">
+        <v>0.51</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5110</v>
       </c>
     </row>
   </sheetData>
